--- a/biology/Zoologie/Ardeidae/Ardeidae.xlsx
+++ b/biology/Zoologie/Ardeidae/Ardeidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ardéidés
 Les ardéidés, ou Ardeidae, sont une famille d'oiseaux comportant 19 genres et 67 espèces de hérons, aigrettes, butors et apparentés (crabiers, bihoreaux, savacou, onorés et blongios).
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces oiseaux sont des échassiers de taille moyenne à grande (de 27 à 140 cm), dotés d'un cou long et grêle (replié en S au repos et en vol mais se tendant lorsqu'ils sont en alerte ou qu'ils capturent une proie), de longues pattes tendues vers l'arrière en vol, et d'un bec jaune orangé, allongé et conique en forme de poignard. Cette forme est adaptée au harponnage : leur chasse à la quête[1] ou à l'affût jour et nuit se conclut par la capture de proies surtout aquatiques (poissons) mais également terrestres. Lorsque leur cible est à leur portée, ils détendent leur cou comme un ressort et projettent leur bec, tel un harpon, vers la proie saisie dans la pince aiguë des mandibules. Ce bec est caractéristique du piscivore, régime majoritaire de la famille. Tous les genres, à l'exception des Butors, sont sociables et nichent en colonies, appelées héronnières[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces oiseaux sont des échassiers de taille moyenne à grande (de 27 à 140 cm), dotés d'un cou long et grêle (replié en S au repos et en vol mais se tendant lorsqu'ils sont en alerte ou qu'ils capturent une proie), de longues pattes tendues vers l'arrière en vol, et d'un bec jaune orangé, allongé et conique en forme de poignard. Cette forme est adaptée au harponnage : leur chasse à la quête ou à l'affût jour et nuit se conclut par la capture de proies surtout aquatiques (poissons) mais également terrestres. Lorsque leur cible est à leur portée, ils détendent leur cou comme un ressort et projettent leur bec, tel un harpon, vers la proie saisie dans la pince aiguë des mandibules. Ce bec est caractéristique du piscivore, régime majoritaire de la famille. Tous les genres, à l'exception des Butors, sont sociables et nichent en colonies, appelées héronnières.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Habitats et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cosmopolites à l'exception de l'Antarctique, ils présentent la plus grande diversité sous les tropiques. Ils fréquentent une large variété de milieux humides ; quelques espèces sont principalement terrestres.
 En Europe occidentale, on compte 9 espèces (les autres sont considérées comme accidentelles) : le Butor étoilé, le Blongios nain, le Bihoreau gris, le Héron garde-bœufs, le Crabier chevelu, l'Aigrette garzette, la Grande aigrette, le Héron cendré et le Héron pourpré.
@@ -577,10 +593,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Étymologie
-Le nom de famille sous lequel le zoologiste Leach désigne ces grand échassiers, provient du genre Ardea, créé par Linné d'après le nom grec du héron, erôidios ou arôidios et qui a donné son nom latin ardea[3].
-Liste des sous-familles et genres
-D'après Alan P. Peterson[4] :
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de famille sous lequel le zoologiste Leach désigne ces grand échassiers, provient du genre Ardea, créé par Linné d'après le nom grec du héron, erôidios ou arôidios et qui a donné son nom latin ardea.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ardeidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ardeidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-familles et genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D'après Alan P. Peterson :
 sous-famille des Tigrisomatinae
 genre Zonerodius
 genre Tigriornis
@@ -603,9 +659,43 @@
 genre Ardea
 genre Pilherodius
 genre Syrigma
-genre Egretta
-Liste alphabétique des genres
-Agamia (f.) Reichenbach, 1853 (1 espèce)
+genre Egretta</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ardeidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ardeidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des genres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Agamia (f.) Reichenbach, 1853 (1 espèce)
 Ardea Linnaeus, 1758  (12 espèces)
 Ardeola Boie, 1822 (6 espèces)
 Botaurus Stephens, 1819 (4 espèces)
@@ -623,9 +713,43 @@
 Tigriornis (f.) Sharpe, 1895 (1 espèce)
 Tigrisoma (n.) Swainson, 1827  (3 espèces)
 Zebrilus (m.) Bonaparte, 1855  (1 espèce)
-Zonerodius (m.) Salvadori, 1882 (1 espèce)
-Liste des espèces
-D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international :
+Zonerodius (m.) Salvadori, 1882 (1 espèce)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ardeidae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ardeidae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international :
 Zonerodius heliosylus – Onoré phaéton
 Tigriornis leucolopha – Onoré à huppe blanche
 Tigrisoma lineatum – Onoré rayé
